--- a/data/dummy_data.xlsx
+++ b/data/dummy_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Finapp\dev\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76B68CC9-664E-4C8F-8336-593A1C2D53CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06357A99-994B-429D-A737-E4AB84C5FBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{78FB22C0-8322-44FB-A653-D45D7BA37948}"/>
   </bookViews>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>Item Description</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
@@ -59,12 +56,6 @@
     <t>Gasoline</t>
   </si>
   <si>
-    <t>Travel</t>
-  </si>
-  <si>
-    <t>Movie Tickets</t>
-  </si>
-  <si>
     <t>Entertainment</t>
   </si>
   <si>
@@ -74,9 +65,6 @@
     <t>Shopping</t>
   </si>
   <si>
-    <t>Eating Out</t>
-  </si>
-  <si>
     <t>Gym Membership</t>
   </si>
   <si>
@@ -89,22 +77,109 @@
     <t>Housing</t>
   </si>
   <si>
-    <t>Car Maintenance</t>
-  </si>
-  <si>
     <t>Transportation</t>
   </si>
   <si>
-    <t>Concert Tickets</t>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>Dinner with friends</t>
+  </si>
+  <si>
+    <t>Clothes</t>
+  </si>
+  <si>
+    <t>Car Insurance</t>
+  </si>
+  <si>
+    <t>Cell Phone Bill</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Lunch</t>
+  </si>
+  <si>
+    <t>Movie tickets</t>
+  </si>
+  <si>
+    <t>Dinner</t>
+  </si>
+  <si>
+    <t>Gifts</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>Concert tickets</t>
+  </si>
+  <si>
+    <t>Car maintenance</t>
+  </si>
+  <si>
+    <t>Lunch with friends</t>
+  </si>
+  <si>
+    <t>Spa</t>
+  </si>
+  <si>
+    <t>Gym membership</t>
+  </si>
+  <si>
+    <t>Parking</t>
+  </si>
+  <si>
+    <t>Snacks</t>
+  </si>
+  <si>
+    <t>Office supplies</t>
+  </si>
+  <si>
+    <t>Work</t>
+  </si>
+  <si>
+    <t>Haircut</t>
+  </si>
+  <si>
+    <t>Restaurant</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>Pharmacy</t>
+  </si>
+  <si>
+    <t>Gas station</t>
+  </si>
+  <si>
+    <t>Lunch at restaurant</t>
+  </si>
+  <si>
+    <t>Uber ride</t>
+  </si>
+  <si>
+    <t>Online shopping purchase</t>
+  </si>
+  <si>
+    <t>Car wash</t>
+  </si>
+  <si>
+    <t>Lunch at food court</t>
+  </si>
+  <si>
+    <t>Dinner at restaurant</t>
+  </si>
+  <si>
+    <t>Item description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
@@ -121,11 +196,11 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -151,20 +226,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -480,366 +552,1642 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E065DF8-AE73-43B8-8F44-E0E0A4FA9BE9}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="22.6640625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.33203125" style="2"/>
+    <col min="1" max="1" width="22.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="22.6640625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>44562</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>44562</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3">
+        <v>45.67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>44563</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>44567</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>44571</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>44575</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="3">
+        <v>85.99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>44576</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>44579</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>44583</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="3">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>44586</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>44591</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="3">
+        <v>55.12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>44594</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>44599</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="3">
+        <v>32.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>44604</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>44607</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>44611</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>44614</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>44619</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>44623</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>44628</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>44633</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>44636</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>44641</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="3">
+        <v>95.99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>44646</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>44651</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>44655</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>44660</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="3">
+        <v>35.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>44665</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>44668</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>44673</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>44678</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="3">
+        <v>65.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>44682</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>44687</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="3">
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>44692</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>44696</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>44700</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="3">
+        <v>80.989999999999995</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>44705</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="3">
+        <v>58.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>44710</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>44714</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>44719</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>44724</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41" s="3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>44727</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>44732</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>44737</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="3">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>44742</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>44743</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="3">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>44746</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>44749</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>44752</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>44755</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>44758</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>44761</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>44764</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="3">
         <v>5</v>
       </c>
-      <c r="D2" s="5">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>44767</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>44770</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>44773</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>44776</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>44571</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>44779</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="3">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>44782</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>44785</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>44788</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>44791</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>44794</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>44797</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D64" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>44800</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>44803</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>44806</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>44809</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>44812</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>44815</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
+        <v>44818</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5">
+      <c r="C71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>44821</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>44824</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>44827</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>44830</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>44833</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>44838</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" s="3">
+        <v>42.17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
+        <v>44840</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" s="3">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
+        <v>44843</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
+        <v>44845</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="3">
+        <v>89.99</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>44848</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" s="3">
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
+        <v>44851</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>44580</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="C82" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" s="3">
+        <v>56.8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
+        <v>44853</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" s="3">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
+        <v>44856</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
+        <v>44860</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" s="3">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
+        <v>44864</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="D86" s="3">
+        <v>62.99</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
+        <v>44868</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" s="3">
+        <v>38.299999999999997</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
+        <v>44873</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" s="3">
+        <v>40.25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="2">
+        <v>44876</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="2">
+        <v>44880</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="2">
+        <v>44883</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="2">
+        <v>44887</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="2">
+        <v>44892</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="3">
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
+        <v>44896</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94" s="3">
+        <v>44.15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
+        <v>44901</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95" s="3">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
+        <v>44904</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="2">
+        <v>44908</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" s="3">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="2">
+        <v>44911</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>44595</v>
-      </c>
-      <c r="B5" s="4" t="s">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="2">
+        <v>44915</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="2">
+        <v>44919</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="2">
+        <v>44924</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="5">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>44604</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="5">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>44613</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="D101" s="3">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="2">
+        <v>44929</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D102" s="3">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="2">
+        <v>44934</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" s="3">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="2">
+        <v>44936</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="2">
+        <v>44938</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D105" s="3">
+        <v>48.75</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="2">
+        <v>44943</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="2">
+        <v>44946</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107" s="3">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="2">
+        <v>44949</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" s="3">
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="2">
+        <v>44955</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D109" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="2">
+        <v>44962</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D110" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="2">
+        <v>44964</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D111" s="3">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="2">
+        <v>44966</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D112" s="3">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>44642</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>44662</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>44671</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="5">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>44700</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>44719</v>
-      </c>
-      <c r="B12" s="4" t="s">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="2">
+        <v>44970</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="5">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>44728</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="5">
+      <c r="D113" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="2">
+        <v>44973</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114" s="3">
+        <v>31.75</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="2">
+        <v>44979</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D115" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="2">
+        <v>44982</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116" s="3">
         <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>44757</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>44776</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>44785</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>44814</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>44842</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>44851</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>44880</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="5">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>44899</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>44908</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>44937</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>44965</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>44983</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="5">
-        <v>1000</v>
       </c>
     </row>
   </sheetData>
